--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/208190.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/208190.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,23 +2264,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2309,17 +2309,17 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2385,29 +2385,29 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,17 +2436,17 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,68 +2645,68 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -2784,23 +2784,23 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="2" t="n">
         <v>0</v>
@@ -2829,17 +2829,17 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AG18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2905,29 +2905,29 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>3</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2956,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>3</v>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>0</v>
@@ -3044,62 +3044,62 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3171,62 +3171,62 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>3</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>0</v>
@@ -3304,62 +3304,62 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3431,62 +3431,62 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>3</v>
       </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3558,68 +3558,68 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ24" s="2" t="n">
         <v>0</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3673,80 +3673,80 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
         <v>3</v>
       </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ25" t="n">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3818,29 +3818,29 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V26" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
       </c>
@@ -3869,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ26" s="2" t="n">
         <v>0</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3945,29 +3945,29 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>4</v>
       </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
@@ -3993,20 +3993,20 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>4</v>
       </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4078,29 +4078,29 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V28" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
       </c>
@@ -4129,25 +4129,25 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4205,29 +4205,29 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
         <v>4</v>
       </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -4253,28 +4253,28 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
         <v>4</v>
       </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>0</v>
@@ -4338,29 +4338,29 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V30" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W30" s="2" t="n">
         <v>0</v>
       </c>
@@ -4383,31 +4383,31 @@
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -4465,29 +4465,29 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
         <v>4</v>
       </c>
-      <c r="V31" t="n">
-        <v>1</v>
-      </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
@@ -4504,37 +4504,37 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
         <v>4</v>
       </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -4598,29 +4598,29 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V32" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W32" s="2" t="n">
         <v>0</v>
       </c>
@@ -4643,31 +4643,31 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4725,29 +4725,29 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
         <v>4</v>
       </c>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -4764,37 +4764,37 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>4</v>
       </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>0</v>
@@ -4858,29 +4858,29 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V34" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
       </c>
@@ -4903,31 +4903,31 @@
         <v>0</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="2" t="n">
         <v>0</v>
@@ -4991,29 +4991,29 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V35" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W35" s="2" t="n">
         <v>0</v>
       </c>
@@ -5036,31 +5036,31 @@
         <v>0</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ35" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>0</v>
@@ -5124,29 +5124,29 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V36" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W36" s="2" t="n">
         <v>0</v>
       </c>
@@ -5169,31 +5169,31 @@
         <v>0</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ36" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5257,29 +5257,29 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V37" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W37" s="2" t="n">
         <v>0</v>
       </c>
@@ -5302,31 +5302,31 @@
         <v>0</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ37" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5366,16 +5366,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5390,29 +5390,29 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V38" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W38" s="2" t="n">
         <v>0</v>
       </c>
@@ -5432,34 +5432,34 @@
         <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ38" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5523,31 +5523,31 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V39" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="2" t="n">
         <v>0</v>
@@ -5559,40 +5559,40 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ39" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5632,16 +5632,16 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5656,31 +5656,31 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V40" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="2" t="n">
         <v>0</v>
@@ -5692,40 +5692,40 @@
         <v>1</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ40" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5759,22 +5759,22 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5789,31 +5789,31 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V41" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2" t="n">
         <v>0</v>
@@ -5825,40 +5825,40 @@
         <v>1</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ41" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5892,22 +5892,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5922,31 +5922,31 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V42" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
         <v>0</v>
@@ -5958,40 +5958,40 @@
         <v>1</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ42" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -6025,22 +6025,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6052,37 +6052,37 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V43" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6091,40 +6091,40 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ43" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6158,22 +6158,22 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6188,34 +6188,34 @@
         <v>1</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V44" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2" t="n">
         <v>0</v>
@@ -6230,34 +6230,34 @@
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ44" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6291,22 +6291,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6318,37 +6318,37 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V45" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>0</v>
@@ -6363,34 +6363,34 @@
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ45" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6424,22 +6424,22 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6451,37 +6451,37 @@
         <v>0</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V46" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2" t="n">
         <v>0</v>
@@ -6496,34 +6496,34 @@
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6557,22 +6557,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6584,37 +6584,37 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V47" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2" t="n">
         <v>0</v>
@@ -6629,34 +6629,34 @@
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ47" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6690,22 +6690,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6720,76 +6720,76 @@
         <v>2</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ48" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6823,22 +6823,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6853,70 +6853,70 @@
         <v>2</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V49" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ49" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="2" t="n">
         <v>1</v>
@@ -6956,22 +6956,22 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6992,64 +6992,64 @@
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ50" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>1</v>
@@ -7083,22 +7083,22 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7119,64 +7119,64 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="n">
         <v>2</v>
       </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>1</v>
       </c>
       <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
         <v>4</v>
       </c>
-      <c r="AG51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK51" t="n">
         <v>1</v>
@@ -7216,22 +7216,22 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
@@ -7261,55 +7261,55 @@
         <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ52" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>1</v>
@@ -7343,19 +7343,19 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7388,55 +7388,55 @@
         <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
         <v>4</v>
       </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="n">
         <v>2</v>
       </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1</v>
-      </c>
       <c r="AB53" t="n">
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>1</v>
       </c>
       <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
         <v>4</v>
       </c>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK53" t="n">
         <v>1</v>
@@ -7449,9 +7449,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="AN53" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -7521,55 +7521,55 @@
         <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ54" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>1</v>
@@ -7603,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -7615,10 +7615,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7648,55 +7648,55 @@
         <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
         <v>4</v>
       </c>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
         <v>2</v>
       </c>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB55" t="n">
         <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE55" t="n">
         <v>1</v>
       </c>
       <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
         <v>4</v>
       </c>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK55" t="n">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
@@ -7748,10 +7748,10 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7772,38 +7772,38 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
@@ -7811,25 +7811,25 @@
         <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ56" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>1</v>
@@ -7863,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>2</v>
@@ -7899,38 +7899,38 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
         <v>4</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="n">
         <v>2</v>
       </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1</v>
-      </c>
       <c r="AB57" t="n">
         <v>1</v>
       </c>
@@ -7938,25 +7938,25 @@
         <v>1</v>
       </c>
       <c r="AD57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE57" t="n">
         <v>1</v>
       </c>
       <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
         <v>4</v>
       </c>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK57" t="n">
         <v>1</v>
@@ -8008,10 +8008,10 @@
         <v>1</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -8032,38 +8032,38 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
@@ -8071,25 +8071,25 @@
         <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ58" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>1</v>
@@ -8135,10 +8135,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>2</v>
@@ -8159,38 +8159,38 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
         <v>4</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="n">
         <v>2</v>
       </c>
-      <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1</v>
-      </c>
       <c r="AB59" t="n">
         <v>1</v>
       </c>
@@ -8198,25 +8198,25 @@
         <v>1</v>
       </c>
       <c r="AD59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE59" t="n">
         <v>1</v>
       </c>
       <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
         <v>4</v>
       </c>
-      <c r="AG59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK59" t="n">
         <v>1</v>
